--- a/dataanalysis/data/predictions/1600/07291854_1855.xlsx
+++ b/dataanalysis/data/predictions/1600/07291854_1855.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="144">
   <si>
     <t>序号</t>
   </si>
@@ -109,6 +109,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-29</t>
   </si>
   <si>
@@ -443,12 +446,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -806,13 +803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE85"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,19 +903,22 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>688062</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>3.22</v>
@@ -936,7 +936,7 @@
         <v>64646.13</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -968,8 +968,23 @@
       <c r="T2">
         <v>0.6899999999999999</v>
       </c>
+      <c r="U2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="V2">
+        <v>5.63</v>
+      </c>
+      <c r="W2">
+        <v>-83.87</v>
+      </c>
       <c r="Z2" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -977,22 +992,25 @@
       <c r="AD2">
         <v>4.160727024078369</v>
       </c>
-      <c r="AE2" t="s">
-        <v>143</v>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>688110</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>20.01</v>
@@ -1010,7 +1028,7 @@
         <v>220588.98</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1042,8 +1060,23 @@
       <c r="T3">
         <v>0.2</v>
       </c>
+      <c r="U3">
+        <v>-6.33</v>
+      </c>
+      <c r="V3">
+        <v>6.6</v>
+      </c>
+      <c r="W3">
+        <v>-85.65000000000001</v>
+      </c>
       <c r="Z3" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -1051,22 +1084,25 @@
       <c r="AD3">
         <v>13.06515979766846</v>
       </c>
-      <c r="AE3" t="s">
-        <v>143</v>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>688202</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0.42</v>
@@ -1084,7 +1120,7 @@
         <v>74972.08</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K4">
         <v>12</v>
@@ -1116,8 +1152,23 @@
       <c r="T4">
         <v>0.14</v>
       </c>
+      <c r="U4">
+        <v>-4.55</v>
+      </c>
+      <c r="V4">
+        <v>6.41</v>
+      </c>
+      <c r="W4">
+        <v>-90.45</v>
+      </c>
       <c r="Z4" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1125,22 +1176,25 @@
       <c r="AD4">
         <v>4.622217655181885</v>
       </c>
-      <c r="AE4" t="s">
-        <v>143</v>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>688210</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>8.08</v>
@@ -1158,7 +1212,7 @@
         <v>57050.69</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -1190,8 +1244,23 @@
       <c r="T5">
         <v>0.18</v>
       </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>9</v>
+      </c>
+      <c r="W5">
+        <v>-75.17</v>
+      </c>
       <c r="Z5" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1199,22 +1268,25 @@
       <c r="AD5">
         <v>1.887605309486389</v>
       </c>
-      <c r="AE5" t="s">
-        <v>143</v>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>688221</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>9.74</v>
@@ -1232,7 +1304,7 @@
         <v>102292.03</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -1264,8 +1336,23 @@
       <c r="T6">
         <v>0.73</v>
       </c>
+      <c r="U6">
+        <v>-0.55</v>
+      </c>
+      <c r="V6">
+        <v>11.01</v>
+      </c>
+      <c r="W6">
+        <v>-50.89</v>
+      </c>
       <c r="Z6" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1273,22 +1360,25 @@
       <c r="AD6">
         <v>0.3208222687244415</v>
       </c>
-      <c r="AE6" t="s">
-        <v>143</v>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>688222</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>4.13</v>
@@ -1306,7 +1396,7 @@
         <v>97060.99000000001</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1338,8 +1428,23 @@
       <c r="T7">
         <v>1.66</v>
       </c>
+      <c r="U7">
+        <v>-3.81</v>
+      </c>
+      <c r="V7">
+        <v>31.48</v>
+      </c>
+      <c r="W7">
+        <v>32.72</v>
+      </c>
       <c r="Z7" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1347,22 +1452,25 @@
       <c r="AD7">
         <v>5.393665313720703</v>
       </c>
-      <c r="AE7" t="s">
-        <v>143</v>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>688313</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -1380,7 +1488,7 @@
         <v>246029.88</v>
       </c>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1412,8 +1520,23 @@
       <c r="T8">
         <v>0.47</v>
       </c>
+      <c r="U8">
+        <v>-3.9</v>
+      </c>
+      <c r="V8">
+        <v>7.76</v>
+      </c>
+      <c r="W8">
+        <v>-88.40000000000001</v>
+      </c>
       <c r="Z8" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1421,22 +1544,25 @@
       <c r="AD8">
         <v>2.443807601928711</v>
       </c>
-      <c r="AE8" t="s">
-        <v>143</v>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>688425</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>4.81</v>
@@ -1454,7 +1580,7 @@
         <v>214955.44</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1486,8 +1612,23 @@
       <c r="T9">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="U9">
+        <v>-9.67</v>
+      </c>
+      <c r="V9">
+        <v>19</v>
+      </c>
+      <c r="W9">
+        <v>181.48</v>
+      </c>
       <c r="Z9" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -1495,22 +1636,25 @@
       <c r="AD9">
         <v>4.625882148742676</v>
       </c>
-      <c r="AE9" t="s">
-        <v>143</v>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>688499</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>3.4</v>
@@ -1528,7 +1672,7 @@
         <v>117404.49</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1560,8 +1704,23 @@
       <c r="T10">
         <v>-0.75</v>
       </c>
+      <c r="U10">
+        <v>-4.88</v>
+      </c>
+      <c r="V10">
+        <v>19.99</v>
+      </c>
+      <c r="W10">
+        <v>-64.63</v>
+      </c>
       <c r="Z10" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1569,22 +1728,25 @@
       <c r="AD10">
         <v>7.827256202697754</v>
       </c>
-      <c r="AE10" t="s">
-        <v>143</v>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>688502</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>-2</v>
@@ -1602,7 +1764,7 @@
         <v>82487.75999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -1634,8 +1796,23 @@
       <c r="T11">
         <v>-0.21</v>
       </c>
+      <c r="U11">
+        <v>-3.35</v>
+      </c>
+      <c r="V11">
+        <v>16.83</v>
+      </c>
+      <c r="W11">
+        <v>-95.13</v>
+      </c>
       <c r="Z11" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1643,22 +1820,25 @@
       <c r="AD11">
         <v>0.3298279345035553</v>
       </c>
-      <c r="AE11" t="s">
-        <v>143</v>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>688556</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>8.27</v>
@@ -1676,7 +1856,7 @@
         <v>89963.07000000001</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K12">
         <v>13</v>
@@ -1708,8 +1888,23 @@
       <c r="T12">
         <v>-0.47</v>
       </c>
+      <c r="U12">
+        <v>3.34</v>
+      </c>
+      <c r="V12">
+        <v>13.5</v>
+      </c>
+      <c r="W12">
+        <v>22.73</v>
+      </c>
       <c r="Z12" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
       </c>
       <c r="AC12">
         <v>1</v>
@@ -1717,22 +1912,25 @@
       <c r="AD12">
         <v>7.424261569976807</v>
       </c>
-      <c r="AE12" t="s">
-        <v>143</v>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>688573</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>-1.16</v>
@@ -1750,7 +1948,7 @@
         <v>31277.14</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1782,8 +1980,23 @@
       <c r="T13">
         <v>-1.19</v>
       </c>
+      <c r="U13">
+        <v>4.93</v>
+      </c>
+      <c r="V13">
+        <v>4.83</v>
+      </c>
+      <c r="W13">
+        <v>-85.11</v>
+      </c>
       <c r="Z13" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -1791,22 +2004,25 @@
       <c r="AD13">
         <v>3.156480073928833</v>
       </c>
-      <c r="AE13" t="s">
-        <v>143</v>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>688585</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>6.19</v>
@@ -1824,7 +2040,7 @@
         <v>218072.99</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K14">
         <v>8</v>
@@ -1856,8 +2072,23 @@
       <c r="T14">
         <v>-0.63</v>
       </c>
+      <c r="U14">
+        <v>-3.59</v>
+      </c>
+      <c r="V14">
+        <v>7.51</v>
+      </c>
+      <c r="W14">
+        <v>-91.08</v>
+      </c>
       <c r="Z14" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -1865,22 +2096,25 @@
       <c r="AD14">
         <v>8.544513702392578</v>
       </c>
-      <c r="AE14" t="s">
-        <v>143</v>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>688630</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>10.47</v>
@@ -1898,7 +2132,7 @@
         <v>158928.79</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1930,8 +2164,23 @@
       <c r="T15">
         <v>-0.22</v>
       </c>
+      <c r="U15">
+        <v>0.63</v>
+      </c>
+      <c r="V15">
+        <v>6.54</v>
+      </c>
+      <c r="W15">
+        <v>-94.83</v>
+      </c>
       <c r="Z15" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>1</v>
@@ -1939,22 +2188,25 @@
       <c r="AD15">
         <v>3.837429523468018</v>
       </c>
-      <c r="AE15" t="s">
-        <v>143</v>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>688660</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>10.05</v>
@@ -1972,7 +2224,7 @@
         <v>176769.38</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2004,8 +2256,23 @@
       <c r="T16">
         <v>-0.52</v>
       </c>
+      <c r="U16">
+        <v>1.82</v>
+      </c>
+      <c r="V16">
+        <v>19.29</v>
+      </c>
+      <c r="W16">
+        <v>15.86</v>
+      </c>
       <c r="Z16" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2013,22 +2280,25 @@
       <c r="AD16">
         <v>1.724353432655334</v>
       </c>
-      <c r="AE16" t="s">
-        <v>143</v>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>688668</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>8.57</v>
@@ -2046,7 +2316,7 @@
         <v>92946.44</v>
       </c>
       <c r="J17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2078,8 +2348,23 @@
       <c r="T17">
         <v>0.22</v>
       </c>
+      <c r="U17">
+        <v>-2.48</v>
+      </c>
+      <c r="V17">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="W17">
+        <v>-89.53</v>
+      </c>
       <c r="Z17" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2087,22 +2372,25 @@
       <c r="AD17">
         <v>2.501882076263428</v>
       </c>
-      <c r="AE17" t="s">
-        <v>143</v>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>688708</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>-0.25</v>
@@ -2120,7 +2408,7 @@
         <v>25805.67</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -2152,8 +2440,23 @@
       <c r="T18">
         <v>-1.18</v>
       </c>
+      <c r="U18">
+        <v>-4.67</v>
+      </c>
+      <c r="V18">
+        <v>25.18</v>
+      </c>
+      <c r="W18">
+        <v>-68.37</v>
+      </c>
       <c r="Z18" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2161,22 +2464,25 @@
       <c r="AD18">
         <v>5.523769378662109</v>
       </c>
-      <c r="AE18" t="s">
-        <v>143</v>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>300006</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>-1.98</v>
@@ -2194,7 +2500,7 @@
         <v>42428.66</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2226,8 +2532,23 @@
       <c r="T19">
         <v>-0.33</v>
       </c>
+      <c r="U19">
+        <v>-1.44</v>
+      </c>
+      <c r="V19">
+        <v>51.5</v>
+      </c>
+      <c r="W19">
+        <v>942.51</v>
+      </c>
       <c r="Z19" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2235,22 +2556,25 @@
       <c r="AD19">
         <v>2.157270431518555</v>
       </c>
-      <c r="AE19" t="s">
-        <v>143</v>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>300021</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>-4.74</v>
@@ -2268,7 +2592,7 @@
         <v>133588.83</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2300,8 +2624,23 @@
       <c r="T20">
         <v>-2.11</v>
       </c>
+      <c r="U20">
+        <v>-5.44</v>
+      </c>
+      <c r="V20">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="W20">
+        <v>37.71</v>
+      </c>
       <c r="Z20" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2309,22 +2648,25 @@
       <c r="AD20">
         <v>4.238439559936523</v>
       </c>
-      <c r="AE20" t="s">
-        <v>143</v>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>300066</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>-2.15</v>
@@ -2342,7 +2684,7 @@
         <v>61543.58</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K21">
         <v>12</v>
@@ -2374,8 +2716,23 @@
       <c r="T21">
         <v>-1.4</v>
       </c>
+      <c r="U21">
+        <v>-3.49</v>
+      </c>
+      <c r="V21">
+        <v>16.5</v>
+      </c>
+      <c r="W21">
+        <v>158.62</v>
+      </c>
       <c r="Z21" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2383,22 +2740,25 @@
       <c r="AD21">
         <v>4.609889507293701</v>
       </c>
-      <c r="AE21" t="s">
-        <v>143</v>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>300086</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>0.76</v>
@@ -2416,7 +2776,7 @@
         <v>91379.74000000001</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22">
         <v>19</v>
@@ -2448,8 +2808,23 @@
       <c r="T22">
         <v>-1.16</v>
       </c>
+      <c r="U22">
+        <v>5.18</v>
+      </c>
+      <c r="V22">
+        <v>98</v>
+      </c>
+      <c r="W22">
+        <v>1125</v>
+      </c>
       <c r="Z22" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2457,22 +2832,25 @@
       <c r="AD22">
         <v>3.084089279174805</v>
       </c>
-      <c r="AE22" t="s">
-        <v>143</v>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>300095</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>-1</v>
@@ -2490,7 +2868,7 @@
         <v>48642.94</v>
       </c>
       <c r="J23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2522,8 +2900,23 @@
       <c r="T23">
         <v>-1.7</v>
       </c>
+      <c r="U23">
+        <v>-2.56</v>
+      </c>
+      <c r="V23">
+        <v>9.73</v>
+      </c>
+      <c r="W23">
+        <v>-10.82</v>
+      </c>
       <c r="Z23" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -2531,22 +2924,25 @@
       <c r="AD23">
         <v>3.025799751281738</v>
       </c>
-      <c r="AE23" t="s">
-        <v>143</v>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>300127</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>0.48</v>
@@ -2564,7 +2960,7 @@
         <v>65157.15</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2596,8 +2992,23 @@
       <c r="T24">
         <v>0.15</v>
       </c>
+      <c r="U24">
+        <v>-1.57</v>
+      </c>
+      <c r="V24">
+        <v>192.37</v>
+      </c>
+      <c r="W24">
+        <v>515.1900000000001</v>
+      </c>
       <c r="Z24" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -2605,22 +3016,25 @@
       <c r="AD24">
         <v>2.90441632270813</v>
       </c>
-      <c r="AE24" t="s">
-        <v>143</v>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>300158</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>6.66</v>
@@ -2638,7 +3052,7 @@
         <v>152001.69</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K25">
         <v>21</v>
@@ -2670,8 +3084,23 @@
       <c r="T25">
         <v>1.24</v>
       </c>
+      <c r="U25">
+        <v>4.95</v>
+      </c>
+      <c r="V25">
+        <v>12.88</v>
+      </c>
+      <c r="W25">
+        <v>67.48999999999999</v>
+      </c>
       <c r="Z25" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -2679,22 +3108,25 @@
       <c r="AD25">
         <v>1.443683862686157</v>
       </c>
-      <c r="AE25" t="s">
-        <v>143</v>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>300188</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>18.52</v>
@@ -2712,7 +3144,7 @@
         <v>264663.42</v>
       </c>
       <c r="J26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -2744,8 +3176,23 @@
       <c r="T26">
         <v>1.66</v>
       </c>
+      <c r="U26">
+        <v>20</v>
+      </c>
+      <c r="V26">
+        <v>25.32</v>
+      </c>
+      <c r="W26">
+        <v>28.85</v>
+      </c>
       <c r="Z26" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -2753,22 +3200,25 @@
       <c r="AD26">
         <v>-0.8426806330680847</v>
       </c>
-      <c r="AE26" t="s">
-        <v>143</v>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>300199</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>4.97</v>
@@ -2786,7 +3236,7 @@
         <v>295895.42</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2818,8 +3268,23 @@
       <c r="T27">
         <v>0.53</v>
       </c>
+      <c r="U27">
+        <v>0.61</v>
+      </c>
+      <c r="V27">
+        <v>27.53</v>
+      </c>
+      <c r="W27">
+        <v>37.17</v>
+      </c>
       <c r="Z27" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
       </c>
       <c r="AC27">
         <v>1</v>
@@ -2827,22 +3292,25 @@
       <c r="AD27">
         <v>6.185766696929932</v>
       </c>
-      <c r="AE27" t="s">
-        <v>144</v>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>300224</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>-1.3</v>
@@ -2860,7 +3328,7 @@
         <v>66863.75999999999</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -2892,8 +3360,23 @@
       <c r="T28">
         <v>-0.43</v>
       </c>
+      <c r="U28">
+        <v>-3.32</v>
+      </c>
+      <c r="V28">
+        <v>29.01</v>
+      </c>
+      <c r="W28">
+        <v>73.70999999999999</v>
+      </c>
       <c r="Z28" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -2901,22 +3384,25 @@
       <c r="AD28">
         <v>0.7787471413612366</v>
       </c>
-      <c r="AE28" t="s">
-        <v>143</v>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>300254</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>3.28</v>
@@ -2934,7 +3420,7 @@
         <v>71758.41</v>
       </c>
       <c r="J29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K29">
         <v>11</v>
@@ -2966,8 +3452,23 @@
       <c r="T29">
         <v>0.46</v>
       </c>
+      <c r="U29">
+        <v>-1.44</v>
+      </c>
+      <c r="V29">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="W29">
+        <v>657.04</v>
+      </c>
       <c r="Z29" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -2975,22 +3476,25 @@
       <c r="AD29">
         <v>4.747027397155762</v>
       </c>
-      <c r="AE29" t="s">
-        <v>143</v>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>300267</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E30">
         <v>-1.84</v>
@@ -3008,7 +3512,7 @@
         <v>131901.38</v>
       </c>
       <c r="J30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3040,8 +3544,23 @@
       <c r="T30">
         <v>0.52</v>
       </c>
+      <c r="U30">
+        <v>-3.46</v>
+      </c>
+      <c r="V30">
+        <v>24.24</v>
+      </c>
+      <c r="W30">
+        <v>469.01</v>
+      </c>
       <c r="Z30" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3049,22 +3568,25 @@
       <c r="AD30">
         <v>5.285474300384521</v>
       </c>
-      <c r="AE30" t="s">
-        <v>143</v>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>300283</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>-2.21</v>
@@ -3082,7 +3604,7 @@
         <v>36802.88</v>
       </c>
       <c r="J31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3114,8 +3636,23 @@
       <c r="T31">
         <v>-0.77</v>
       </c>
+      <c r="U31">
+        <v>-6.4</v>
+      </c>
+      <c r="V31">
+        <v>20.01</v>
+      </c>
+      <c r="W31">
+        <v>165.74</v>
+      </c>
       <c r="Z31" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3123,22 +3660,25 @@
       <c r="AD31">
         <v>3.202451229095459</v>
       </c>
-      <c r="AE31" t="s">
-        <v>143</v>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>300291</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>-2.75</v>
@@ -3156,7 +3696,7 @@
         <v>32256.24</v>
       </c>
       <c r="J32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -3188,8 +3728,23 @@
       <c r="T32">
         <v>-0.63</v>
       </c>
+      <c r="U32">
+        <v>-5.49</v>
+      </c>
+      <c r="V32">
+        <v>34.42</v>
+      </c>
+      <c r="W32">
+        <v>441.19</v>
+      </c>
       <c r="Z32" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3197,22 +3752,25 @@
       <c r="AD32">
         <v>2.76435112953186</v>
       </c>
-      <c r="AE32" t="s">
-        <v>143</v>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>300322</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33">
         <v>-0.95</v>
@@ -3230,7 +3788,7 @@
         <v>272505.98</v>
       </c>
       <c r="J33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3262,8 +3820,23 @@
       <c r="T33">
         <v>-5.87</v>
       </c>
+      <c r="U33">
+        <v>2.71</v>
+      </c>
+      <c r="V33">
+        <v>52.4</v>
+      </c>
+      <c r="W33">
+        <v>179.91</v>
+      </c>
       <c r="Z33" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3271,22 +3844,25 @@
       <c r="AD33">
         <v>5.636264801025391</v>
       </c>
-      <c r="AE33" t="s">
-        <v>143</v>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>300329</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <v>-1.91</v>
@@ -3304,7 +3880,7 @@
         <v>19980.29</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3336,8 +3912,23 @@
       <c r="T34">
         <v>-0.02</v>
       </c>
+      <c r="U34">
+        <v>11.82</v>
+      </c>
+      <c r="V34">
+        <v>40</v>
+      </c>
+      <c r="W34">
+        <v>331.97</v>
+      </c>
       <c r="Z34" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -3345,22 +3936,25 @@
       <c r="AD34">
         <v>5.193859100341797</v>
       </c>
-      <c r="AE34" t="s">
-        <v>143</v>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>300363</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E35">
         <v>2.58</v>
@@ -3378,7 +3972,7 @@
         <v>162726.78</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -3410,8 +4004,23 @@
       <c r="T35">
         <v>0.16</v>
       </c>
+      <c r="U35">
+        <v>-2.3</v>
+      </c>
+      <c r="V35">
+        <v>40.36</v>
+      </c>
+      <c r="W35">
+        <v>58.4</v>
+      </c>
       <c r="Z35" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -3419,22 +4028,25 @@
       <c r="AD35">
         <v>2.433701038360596</v>
       </c>
-      <c r="AE35" t="s">
-        <v>143</v>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <v>300378</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E36">
         <v>-0.52</v>
@@ -3452,7 +4064,7 @@
         <v>136977.43</v>
       </c>
       <c r="J36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3484,8 +4096,23 @@
       <c r="T36">
         <v>0.11</v>
       </c>
+      <c r="U36">
+        <v>-7.16</v>
+      </c>
+      <c r="V36">
+        <v>52.49</v>
+      </c>
+      <c r="W36">
+        <v>5.32</v>
+      </c>
       <c r="Z36" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -3493,22 +4120,25 @@
       <c r="AD36">
         <v>4.882348537445068</v>
       </c>
-      <c r="AE36" t="s">
-        <v>143</v>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37">
         <v>300410</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E37">
         <v>17.49</v>
@@ -3526,7 +4156,7 @@
         <v>90412.28</v>
       </c>
       <c r="J37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3558,8 +4188,23 @@
       <c r="T37">
         <v>2.39</v>
       </c>
+      <c r="U37">
+        <v>-0.33</v>
+      </c>
+      <c r="V37">
+        <v>30.86</v>
+      </c>
+      <c r="W37">
+        <v>242.89</v>
+      </c>
       <c r="Z37" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
       </c>
       <c r="AC37">
         <v>1</v>
@@ -3567,22 +4212,25 @@
       <c r="AD37">
         <v>1.608584403991699</v>
       </c>
-      <c r="AE37" t="s">
-        <v>144</v>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38">
         <v>300414</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E38">
         <v>11.4</v>
@@ -3600,7 +4248,7 @@
         <v>140755.57</v>
       </c>
       <c r="J38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K38">
         <v>13</v>
@@ -3632,8 +4280,23 @@
       <c r="T38">
         <v>0.8100000000000001</v>
       </c>
+      <c r="U38">
+        <v>-2.84</v>
+      </c>
+      <c r="V38">
+        <v>28.38</v>
+      </c>
+      <c r="W38">
+        <v>77.04000000000001</v>
+      </c>
       <c r="Z38" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -3641,22 +4304,25 @@
       <c r="AD38">
         <v>8.523125648498535</v>
       </c>
-      <c r="AE38" t="s">
-        <v>143</v>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>300436</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39">
         <v>8.18</v>
@@ -3674,7 +4340,7 @@
         <v>190850.23</v>
       </c>
       <c r="J39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K39">
         <v>23</v>
@@ -3706,8 +4372,23 @@
       <c r="T39">
         <v>-0.82</v>
       </c>
+      <c r="U39">
+        <v>-2.02</v>
+      </c>
+      <c r="V39">
+        <v>93.7</v>
+      </c>
+      <c r="W39">
+        <v>1.6</v>
+      </c>
       <c r="Z39" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -3715,22 +4396,25 @@
       <c r="AD39">
         <v>4.010321140289307</v>
       </c>
-      <c r="AE39" t="s">
-        <v>143</v>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40">
         <v>300490</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E40">
         <v>-1.22</v>
@@ -3748,7 +4432,7 @@
         <v>31757.31</v>
       </c>
       <c r="J40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K40">
         <v>6</v>
@@ -3780,8 +4464,23 @@
       <c r="T40">
         <v>-0.4</v>
       </c>
+      <c r="U40">
+        <v>-2.3</v>
+      </c>
+      <c r="V40">
+        <v>60.58</v>
+      </c>
+      <c r="W40">
+        <v>521.33</v>
+      </c>
       <c r="Z40" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -3789,22 +4488,25 @@
       <c r="AD40">
         <v>1.83801281452179</v>
       </c>
-      <c r="AE40" t="s">
-        <v>143</v>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>300502</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E41">
         <v>8.77</v>
@@ -3822,7 +4524,7 @@
         <v>1450416.95</v>
       </c>
       <c r="J41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3854,8 +4556,23 @@
       <c r="T41">
         <v>0.73</v>
       </c>
+      <c r="U41">
+        <v>-4.69</v>
+      </c>
+      <c r="V41">
+        <v>37.43</v>
+      </c>
+      <c r="W41">
+        <v>-80.65000000000001</v>
+      </c>
       <c r="Z41" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -3863,22 +4580,25 @@
       <c r="AD41">
         <v>6.988391399383545</v>
       </c>
-      <c r="AE41" t="s">
-        <v>143</v>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C42">
         <v>300527</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E42">
         <v>4.1</v>
@@ -3896,7 +4616,7 @@
         <v>129483.64</v>
       </c>
       <c r="J42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -3928,8 +4648,23 @@
       <c r="T42">
         <v>0.38</v>
       </c>
+      <c r="U42">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="V42">
+        <v>21.54</v>
+      </c>
+      <c r="W42">
+        <v>80.7</v>
+      </c>
       <c r="Z42" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -3937,22 +4672,25 @@
       <c r="AD42">
         <v>3.778898954391479</v>
       </c>
-      <c r="AE42" t="s">
-        <v>143</v>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:32">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>300528</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E43">
         <v>20.02</v>
@@ -3970,7 +4708,7 @@
         <v>127125.4</v>
       </c>
       <c r="J43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -4002,8 +4740,23 @@
       <c r="T43">
         <v>-0.17</v>
       </c>
+      <c r="U43">
+        <v>-8.41</v>
+      </c>
+      <c r="V43">
+        <v>27.04</v>
+      </c>
+      <c r="W43">
+        <v>28.15</v>
+      </c>
       <c r="Z43" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
       </c>
       <c r="AC43">
         <v>1</v>
@@ -4011,22 +4764,25 @@
       <c r="AD43">
         <v>15.89824962615967</v>
       </c>
-      <c r="AE43" t="s">
-        <v>143</v>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:32">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C44">
         <v>300537</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E44">
         <v>0.23</v>
@@ -4044,7 +4800,7 @@
         <v>39993.53</v>
       </c>
       <c r="J44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4076,8 +4832,23 @@
       <c r="T44">
         <v>-0.93</v>
       </c>
+      <c r="U44">
+        <v>20</v>
+      </c>
+      <c r="V44">
+        <v>30.6</v>
+      </c>
+      <c r="W44">
+        <v>15.73</v>
+      </c>
       <c r="Z44" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -4085,22 +4856,25 @@
       <c r="AD44">
         <v>1.909857749938965</v>
       </c>
-      <c r="AE44" t="s">
-        <v>143</v>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45">
         <v>300539</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E45">
         <v>19.1</v>
@@ -4118,7 +4892,7 @@
         <v>134238.78</v>
       </c>
       <c r="J45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -4150,8 +4924,23 @@
       <c r="T45">
         <v>0.32</v>
       </c>
+      <c r="U45">
+        <v>13.85</v>
+      </c>
+      <c r="V45">
+        <v>23.7</v>
+      </c>
+      <c r="W45">
+        <v>-19.66</v>
+      </c>
       <c r="Z45" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
       </c>
       <c r="AC45">
         <v>1</v>
@@ -4159,22 +4948,25 @@
       <c r="AD45">
         <v>6.583426952362061</v>
       </c>
-      <c r="AE45" t="s">
-        <v>143</v>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>300548</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E46">
         <v>9.800000000000001</v>
@@ -4192,7 +4984,7 @@
         <v>292248.65</v>
       </c>
       <c r="J46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4224,8 +5016,23 @@
       <c r="T46">
         <v>0.5</v>
       </c>
+      <c r="U46">
+        <v>-1.55</v>
+      </c>
+      <c r="V46">
+        <v>12.33</v>
+      </c>
+      <c r="W46">
+        <v>-86.65000000000001</v>
+      </c>
       <c r="Z46" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -4233,22 +5040,25 @@
       <c r="AD46">
         <v>6.353496551513672</v>
       </c>
-      <c r="AE46" t="s">
-        <v>143</v>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>300581</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47">
         <v>6.08</v>
@@ -4266,7 +5076,7 @@
         <v>221329.72</v>
       </c>
       <c r="J47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -4298,8 +5108,23 @@
       <c r="T47">
         <v>-0.04</v>
       </c>
+      <c r="U47">
+        <v>-3.35</v>
+      </c>
+      <c r="V47">
+        <v>31.31</v>
+      </c>
+      <c r="W47">
+        <v>36.96</v>
+      </c>
       <c r="Z47" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>1</v>
@@ -4307,22 +5132,25 @@
       <c r="AD47">
         <v>6.451529979705811</v>
       </c>
-      <c r="AE47" t="s">
-        <v>143</v>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C48">
         <v>300588</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E48">
         <v>9.51</v>
@@ -4340,7 +5168,7 @@
         <v>82857.88</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4372,8 +5200,23 @@
       <c r="T48">
         <v>0.53</v>
       </c>
+      <c r="U48">
+        <v>0.89</v>
+      </c>
+      <c r="V48">
+        <v>39.8</v>
+      </c>
+      <c r="W48">
+        <v>97.52</v>
+      </c>
       <c r="Z48" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
       </c>
       <c r="AC48">
         <v>1</v>
@@ -4381,22 +5224,25 @@
       <c r="AD48">
         <v>4.559506416320801</v>
       </c>
-      <c r="AE48" t="s">
-        <v>143</v>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:32">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C49">
         <v>300644</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E49">
         <v>2.42</v>
@@ -4414,7 +5260,7 @@
         <v>61895.4</v>
       </c>
       <c r="J49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -4446,8 +5292,23 @@
       <c r="T49">
         <v>0.02</v>
       </c>
+      <c r="U49">
+        <v>10.86</v>
+      </c>
+      <c r="V49">
+        <v>35.28</v>
+      </c>
+      <c r="W49">
+        <v>1.5</v>
+      </c>
       <c r="Z49" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -4455,22 +5316,25 @@
       <c r="AD49">
         <v>3.133557319641113</v>
       </c>
-      <c r="AE49" t="s">
-        <v>143</v>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:32">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C50">
         <v>300683</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E50">
         <v>15.28</v>
@@ -4488,7 +5352,7 @@
         <v>104663.01</v>
       </c>
       <c r="J50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K50">
         <v>26</v>
@@ -4520,8 +5384,23 @@
       <c r="T50">
         <v>0.04</v>
       </c>
+      <c r="U50">
+        <v>1.45</v>
+      </c>
+      <c r="V50">
+        <v>40.32</v>
+      </c>
+      <c r="W50">
+        <v>-20.33</v>
+      </c>
       <c r="Z50" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -4529,22 +5408,25 @@
       <c r="AD50">
         <v>3.454276084899902</v>
       </c>
-      <c r="AE50" t="s">
-        <v>143</v>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:32">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C51">
         <v>300706</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E51">
         <v>-5.42</v>
@@ -4562,7 +5444,7 @@
         <v>121826.55</v>
       </c>
       <c r="J51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -4594,8 +5476,23 @@
       <c r="T51">
         <v>-1.52</v>
       </c>
+      <c r="U51">
+        <v>-5.16</v>
+      </c>
+      <c r="V51">
+        <v>26.96</v>
+      </c>
+      <c r="W51">
+        <v>-21.9</v>
+      </c>
       <c r="Z51" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -4603,22 +5500,25 @@
       <c r="AD51">
         <v>3.693297147750854</v>
       </c>
-      <c r="AE51" t="s">
-        <v>143</v>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:32">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C52">
         <v>300722</v>
       </c>
       <c r="D52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E52">
         <v>4.88</v>
@@ -4636,7 +5536,7 @@
         <v>99512.52</v>
       </c>
       <c r="J52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -4668,8 +5568,23 @@
       <c r="T52">
         <v>0.46</v>
       </c>
+      <c r="U52">
+        <v>4.67</v>
+      </c>
+      <c r="V52">
+        <v>25.45</v>
+      </c>
+      <c r="W52">
+        <v>-36.38</v>
+      </c>
       <c r="Z52" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -4677,22 +5592,25 @@
       <c r="AD52">
         <v>2.647460699081421</v>
       </c>
-      <c r="AE52" t="s">
-        <v>143</v>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:32">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C53">
         <v>300725</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E53">
         <v>18.77</v>
@@ -4710,7 +5628,7 @@
         <v>188087.26</v>
       </c>
       <c r="J53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -4742,8 +5660,23 @@
       <c r="T53">
         <v>-0.35</v>
       </c>
+      <c r="U53">
+        <v>0.66</v>
+      </c>
+      <c r="V53">
+        <v>33.89</v>
+      </c>
+      <c r="W53">
+        <v>-36.18</v>
+      </c>
       <c r="Z53" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
       </c>
       <c r="AC53">
         <v>1</v>
@@ -4751,22 +5684,25 @@
       <c r="AD53">
         <v>4.623157501220703</v>
       </c>
-      <c r="AE53" t="s">
-        <v>143</v>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:32">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C54">
         <v>300747</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E54">
         <v>1.9</v>
@@ -4784,7 +5720,7 @@
         <v>121464.67</v>
       </c>
       <c r="J54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -4816,8 +5752,23 @@
       <c r="T54">
         <v>-0.75</v>
       </c>
+      <c r="U54">
+        <v>-0.8</v>
+      </c>
+      <c r="V54">
+        <v>70.88</v>
+      </c>
+      <c r="W54">
+        <v>135.72</v>
+      </c>
       <c r="Z54" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -4825,22 +5776,25 @@
       <c r="AD54">
         <v>2.119880437850952</v>
       </c>
-      <c r="AE54" t="s">
-        <v>143</v>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:32">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55">
         <v>300748</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E55">
         <v>-1.47</v>
@@ -4858,7 +5812,7 @@
         <v>140652.98</v>
       </c>
       <c r="J55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K55">
         <v>17</v>
@@ -4890,8 +5844,23 @@
       <c r="T55">
         <v>-0.42</v>
       </c>
+      <c r="U55">
+        <v>-0.78</v>
+      </c>
+      <c r="V55">
+        <v>27.95</v>
+      </c>
+      <c r="W55">
+        <v>-0.64</v>
+      </c>
       <c r="Z55" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -4899,22 +5868,25 @@
       <c r="AD55">
         <v>4.893610000610352</v>
       </c>
-      <c r="AE55" t="s">
-        <v>143</v>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:32">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C56">
         <v>300803</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E56">
         <v>0.16</v>
@@ -4932,7 +5904,7 @@
         <v>390341.66</v>
       </c>
       <c r="J56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -4964,8 +5936,23 @@
       <c r="T56">
         <v>-0.38</v>
       </c>
+      <c r="U56">
+        <v>-5.42</v>
+      </c>
+      <c r="V56">
+        <v>44.77</v>
+      </c>
+      <c r="W56">
+        <v>-52.32</v>
+      </c>
       <c r="Z56" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -4973,22 +5960,25 @@
       <c r="AD56">
         <v>3.448690891265869</v>
       </c>
-      <c r="AE56" t="s">
-        <v>143</v>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:32">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C57">
         <v>300835</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57">
         <v>-1.91</v>
@@ -5006,7 +5996,7 @@
         <v>81634.19</v>
       </c>
       <c r="J57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5038,8 +6028,23 @@
       <c r="T57">
         <v>-0.28</v>
       </c>
+      <c r="U57">
+        <v>-3.3</v>
+      </c>
+      <c r="V57">
+        <v>68.97</v>
+      </c>
+      <c r="W57">
+        <v>17.6</v>
+      </c>
       <c r="Z57" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5047,22 +6052,25 @@
       <c r="AD57">
         <v>0.09384327381849289</v>
       </c>
-      <c r="AE57" t="s">
-        <v>143</v>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:32">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C58">
         <v>300865</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E58">
         <v>2.74</v>
@@ -5080,7 +6088,7 @@
         <v>38103.33</v>
       </c>
       <c r="J58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -5112,8 +6120,23 @@
       <c r="T58">
         <v>0.89</v>
       </c>
+      <c r="U58">
+        <v>-0.38</v>
+      </c>
+      <c r="V58">
+        <v>168.87</v>
+      </c>
+      <c r="W58">
+        <v>349.96</v>
+      </c>
       <c r="Z58" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5121,22 +6144,25 @@
       <c r="AD58">
         <v>3.308583736419678</v>
       </c>
-      <c r="AE58" t="s">
-        <v>143</v>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:32">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C59">
         <v>300869</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E59">
         <v>-4.3</v>
@@ -5154,7 +6180,7 @@
         <v>68576.61</v>
       </c>
       <c r="J59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5186,8 +6212,23 @@
       <c r="T59">
         <v>-0.39</v>
       </c>
+      <c r="U59">
+        <v>0.54</v>
+      </c>
+      <c r="V59">
+        <v>94.3</v>
+      </c>
+      <c r="W59">
+        <v>404.82</v>
+      </c>
       <c r="Z59" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -5195,22 +6236,25 @@
       <c r="AD59">
         <v>1.41960084438324</v>
       </c>
-      <c r="AE59" t="s">
-        <v>143</v>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:32">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C60">
         <v>300872</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E60">
         <v>1.58</v>
@@ -5228,7 +6272,7 @@
         <v>208343.77</v>
       </c>
       <c r="J60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K60">
         <v>11</v>
@@ -5260,8 +6304,23 @@
       <c r="T60">
         <v>-0.3</v>
       </c>
+      <c r="U60">
+        <v>-2.82</v>
+      </c>
+      <c r="V60">
+        <v>55.55</v>
+      </c>
+      <c r="W60">
+        <v>100.61</v>
+      </c>
       <c r="Z60" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -5269,22 +6328,25 @@
       <c r="AD60">
         <v>6.371095657348633</v>
       </c>
-      <c r="AE60" t="s">
-        <v>143</v>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:32">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C61">
         <v>300877</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61">
         <v>0.31</v>
@@ -5302,7 +6364,7 @@
         <v>28242.11</v>
       </c>
       <c r="J61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K61">
         <v>16</v>
@@ -5334,8 +6396,23 @@
       <c r="T61">
         <v>0.74</v>
       </c>
+      <c r="U61">
+        <v>-2.49</v>
+      </c>
+      <c r="V61">
+        <v>36.78</v>
+      </c>
+      <c r="W61">
+        <v>44.24</v>
+      </c>
       <c r="Z61" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>1</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -5343,22 +6420,25 @@
       <c r="AD61">
         <v>0.3518301248550415</v>
       </c>
-      <c r="AE61" t="s">
-        <v>143</v>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:32">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C62">
         <v>300885</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62">
         <v>20.01</v>
@@ -5376,7 +6456,7 @@
         <v>55329.68</v>
       </c>
       <c r="J62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -5408,8 +6488,23 @@
       <c r="T62">
         <v>3.3</v>
       </c>
+      <c r="U62">
+        <v>3.93</v>
+      </c>
+      <c r="V62">
+        <v>167.8</v>
+      </c>
+      <c r="W62">
+        <v>718.14</v>
+      </c>
       <c r="Z62" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <v>1</v>
       </c>
       <c r="AC62">
         <v>1</v>
@@ -5417,22 +6512,25 @@
       <c r="AD62">
         <v>15.08360767364502</v>
       </c>
-      <c r="AE62" t="s">
-        <v>144</v>
+      <c r="AE62">
+        <v>1</v>
+      </c>
+      <c r="AF62">
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:32">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C63">
         <v>300903</v>
       </c>
       <c r="D63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63">
         <v>2.51</v>
@@ -5450,7 +6548,7 @@
         <v>82060.07000000001</v>
       </c>
       <c r="J63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K63">
         <v>27</v>
@@ -5482,8 +6580,23 @@
       <c r="T63">
         <v>-1.47</v>
       </c>
+      <c r="U63">
+        <v>-0.29</v>
+      </c>
+      <c r="V63">
+        <v>79.2</v>
+      </c>
+      <c r="W63">
+        <v>547.59</v>
+      </c>
       <c r="Z63" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>1</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -5491,22 +6604,25 @@
       <c r="AD63">
         <v>2.955541610717773</v>
       </c>
-      <c r="AE63" t="s">
-        <v>143</v>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:32">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C64">
         <v>300950</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E64">
         <v>-2.7</v>
@@ -5524,7 +6640,7 @@
         <v>37712.97</v>
       </c>
       <c r="J64" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K64">
         <v>26</v>
@@ -5556,8 +6672,23 @@
       <c r="T64">
         <v>-0.52</v>
       </c>
+      <c r="U64">
+        <v>3.66</v>
+      </c>
+      <c r="V64">
+        <v>36.52</v>
+      </c>
+      <c r="W64">
+        <v>16.38</v>
+      </c>
       <c r="Z64" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>1</v>
       </c>
       <c r="AC64">
         <v>1</v>
@@ -5565,22 +6696,25 @@
       <c r="AD64">
         <v>5.018177032470703</v>
       </c>
-      <c r="AE64" t="s">
-        <v>143</v>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:32">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C65">
         <v>301007</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E65">
         <v>10.4</v>
@@ -5598,7 +6732,7 @@
         <v>96146.44</v>
       </c>
       <c r="J65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K65">
         <v>16</v>
@@ -5630,8 +6764,23 @@
       <c r="T65">
         <v>-1.07</v>
       </c>
+      <c r="U65">
+        <v>-2.4</v>
+      </c>
+      <c r="V65">
+        <v>5.08</v>
+      </c>
+      <c r="W65">
+        <v>-86.7</v>
+      </c>
       <c r="Z65" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -5639,22 +6788,25 @@
       <c r="AD65">
         <v>7.460047245025635</v>
       </c>
-      <c r="AE65" t="s">
-        <v>143</v>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:32">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>301038</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E66">
         <v>19.99</v>
@@ -5672,7 +6824,7 @@
         <v>105197.45</v>
       </c>
       <c r="J66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K66">
         <v>8</v>
@@ -5704,8 +6856,23 @@
       <c r="T66">
         <v>0</v>
       </c>
+      <c r="U66">
+        <v>-4.37</v>
+      </c>
+      <c r="V66">
+        <v>60.8</v>
+      </c>
+      <c r="W66">
+        <v>98.23999999999999</v>
+      </c>
       <c r="Z66" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -5713,22 +6880,25 @@
       <c r="AD66">
         <v>5.559698581695557</v>
       </c>
-      <c r="AE66" t="s">
-        <v>143</v>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:32">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C67">
         <v>301132</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E67">
         <v>1.6</v>
@@ -5746,7 +6916,7 @@
         <v>67796.13</v>
       </c>
       <c r="J67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -5778,8 +6948,23 @@
       <c r="T67">
         <v>-1.71</v>
       </c>
+      <c r="U67">
+        <v>-4.51</v>
+      </c>
+      <c r="V67">
+        <v>55.66</v>
+      </c>
+      <c r="W67">
+        <v>41.27</v>
+      </c>
       <c r="Z67" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>1</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -5787,22 +6972,25 @@
       <c r="AD67">
         <v>1.619786858558655</v>
       </c>
-      <c r="AE67" t="s">
-        <v>143</v>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:32">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C68">
         <v>301150</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E68">
         <v>2.86</v>
@@ -5820,7 +7008,7 @@
         <v>73217.52</v>
       </c>
       <c r="J68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K68">
         <v>6</v>
@@ -5852,8 +7040,23 @@
       <c r="T68">
         <v>-1.93</v>
       </c>
+      <c r="U68">
+        <v>-2.79</v>
+      </c>
+      <c r="V68">
+        <v>144.8</v>
+      </c>
+      <c r="W68">
+        <v>437.09</v>
+      </c>
       <c r="Z68" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -5861,22 +7064,25 @@
       <c r="AD68">
         <v>6.041799545288086</v>
       </c>
-      <c r="AE68" t="s">
-        <v>143</v>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:32">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C69">
         <v>301151</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E69">
         <v>0.44</v>
@@ -5894,7 +7100,7 @@
         <v>40795.27</v>
       </c>
       <c r="J69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -5926,8 +7132,23 @@
       <c r="T69">
         <v>0.15</v>
       </c>
+      <c r="U69">
+        <v>-4.81</v>
+      </c>
+      <c r="V69">
+        <v>35.48</v>
+      </c>
+      <c r="W69">
+        <v>54.93</v>
+      </c>
       <c r="Z69" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>1</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -5935,22 +7156,25 @@
       <c r="AD69">
         <v>0.2473784685134888</v>
       </c>
-      <c r="AE69" t="s">
-        <v>143</v>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:32">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C70">
         <v>301176</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E70">
         <v>-0.06</v>
@@ -5968,7 +7192,7 @@
         <v>48738.63</v>
       </c>
       <c r="J70" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -6000,8 +7224,23 @@
       <c r="T70">
         <v>-0.68</v>
       </c>
+      <c r="U70">
+        <v>17.33</v>
+      </c>
+      <c r="V70">
+        <v>55.09</v>
+      </c>
+      <c r="W70">
+        <v>65.83</v>
+      </c>
       <c r="Z70" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -6009,22 +7248,25 @@
       <c r="AD70">
         <v>1.048850893974304</v>
       </c>
-      <c r="AE70" t="s">
-        <v>143</v>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:32">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C71">
         <v>301200</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E71">
         <v>2.95</v>
@@ -6042,7 +7284,7 @@
         <v>108735.22</v>
       </c>
       <c r="J71" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K71">
         <v>15</v>
@@ -6074,8 +7316,23 @@
       <c r="T71">
         <v>0.97</v>
       </c>
+      <c r="U71">
+        <v>-6.55</v>
+      </c>
+      <c r="V71">
+        <v>66.5</v>
+      </c>
+      <c r="W71">
+        <v>-6.57</v>
+      </c>
       <c r="Z71" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -6083,22 +7340,25 @@
       <c r="AD71">
         <v>2.852635860443115</v>
       </c>
-      <c r="AE71" t="s">
-        <v>143</v>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:32">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72">
         <v>301217</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E72">
         <v>6.78</v>
@@ -6116,7 +7376,7 @@
         <v>236257.69</v>
       </c>
       <c r="J72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K72">
         <v>3</v>
@@ -6148,8 +7408,23 @@
       <c r="T72">
         <v>-0.34</v>
       </c>
+      <c r="U72">
+        <v>-5.08</v>
+      </c>
+      <c r="V72">
+        <v>36</v>
+      </c>
+      <c r="W72">
+        <v>34.43</v>
+      </c>
       <c r="Z72" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -6157,22 +7432,25 @@
       <c r="AD72">
         <v>3.597679376602173</v>
       </c>
-      <c r="AE72" t="s">
-        <v>143</v>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:32">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C73">
         <v>301285</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E73">
         <v>-0.43</v>
@@ -6190,7 +7468,7 @@
         <v>72722.42999999999</v>
       </c>
       <c r="J73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -6222,8 +7500,23 @@
       <c r="T73">
         <v>-1.43</v>
       </c>
+      <c r="U73">
+        <v>-0.89</v>
+      </c>
+      <c r="V73">
+        <v>23.56</v>
+      </c>
+      <c r="W73">
+        <v>-46.59</v>
+      </c>
       <c r="Z73" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -6231,22 +7524,25 @@
       <c r="AD73">
         <v>8.042431831359863</v>
       </c>
-      <c r="AE73" t="s">
-        <v>143</v>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:32">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C74">
         <v>301306</v>
       </c>
       <c r="D74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74">
         <v>3.12</v>
@@ -6264,7 +7560,7 @@
         <v>61614.17</v>
       </c>
       <c r="J74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K74">
         <v>8</v>
@@ -6296,8 +7592,23 @@
       <c r="T74">
         <v>0.24</v>
       </c>
+      <c r="U74">
+        <v>-0.3</v>
+      </c>
+      <c r="V74">
+        <v>24.79</v>
+      </c>
+      <c r="W74">
+        <v>-63</v>
+      </c>
       <c r="Z74" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -6305,22 +7616,25 @@
       <c r="AD74">
         <v>2.575546264648438</v>
       </c>
-      <c r="AE74" t="s">
-        <v>143</v>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:32">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C75">
         <v>301345</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75">
         <v>1.62</v>
@@ -6338,7 +7652,7 @@
         <v>41752.81</v>
       </c>
       <c r="J75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K75">
         <v>30</v>
@@ -6370,8 +7684,23 @@
       <c r="T75">
         <v>0.6899999999999999</v>
       </c>
+      <c r="U75">
+        <v>-7.6</v>
+      </c>
+      <c r="V75">
+        <v>64.2</v>
+      </c>
+      <c r="W75">
+        <v>-60.21</v>
+      </c>
       <c r="Z75" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -6379,22 +7708,25 @@
       <c r="AD75">
         <v>6.73751163482666</v>
       </c>
-      <c r="AE75" t="s">
-        <v>143</v>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:32">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C76">
         <v>301357</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E76">
         <v>7.12</v>
@@ -6412,7 +7744,7 @@
         <v>102564.42</v>
       </c>
       <c r="J76" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -6444,8 +7776,23 @@
       <c r="T76">
         <v>2.33</v>
       </c>
+      <c r="U76">
+        <v>-3.56</v>
+      </c>
+      <c r="V76">
+        <v>6.88</v>
+      </c>
+      <c r="W76">
+        <v>-92.12</v>
+      </c>
       <c r="Z76" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -6453,22 +7800,25 @@
       <c r="AD76">
         <v>1.628378629684448</v>
       </c>
-      <c r="AE76" t="s">
-        <v>143</v>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:32">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77">
         <v>301377</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -6486,7 +7836,7 @@
         <v>59483.91</v>
       </c>
       <c r="J77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K77">
         <v>9</v>
@@ -6518,8 +7868,23 @@
       <c r="T77">
         <v>-0.32</v>
       </c>
+      <c r="U77">
+        <v>-4.67</v>
+      </c>
+      <c r="V77">
+        <v>56.6</v>
+      </c>
+      <c r="W77">
+        <v>2.91</v>
+      </c>
       <c r="Z77" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -6527,22 +7892,25 @@
       <c r="AD77">
         <v>0.9398844242095947</v>
       </c>
-      <c r="AE77" t="s">
-        <v>143</v>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:32">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C78">
         <v>301389</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E78">
         <v>3.32</v>
@@ -6560,7 +7928,7 @@
         <v>92676.92</v>
       </c>
       <c r="J78" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -6592,8 +7960,23 @@
       <c r="T78">
         <v>-0.32</v>
       </c>
+      <c r="U78">
+        <v>0.66</v>
+      </c>
+      <c r="V78">
+        <v>353</v>
+      </c>
+      <c r="W78">
+        <v>876.49</v>
+      </c>
       <c r="Z78" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -6601,22 +7984,25 @@
       <c r="AD78">
         <v>1.675522923469543</v>
       </c>
-      <c r="AE78" t="s">
-        <v>143</v>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:32">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C79">
         <v>301392</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E79">
         <v>-2.44</v>
@@ -6634,7 +8020,7 @@
         <v>83822.73</v>
       </c>
       <c r="J79" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -6666,8 +8052,23 @@
       <c r="T79">
         <v>-0.41</v>
       </c>
+      <c r="U79">
+        <v>-3.64</v>
+      </c>
+      <c r="V79">
+        <v>11.04</v>
+      </c>
+      <c r="W79">
+        <v>-93.09999999999999</v>
+      </c>
       <c r="Z79" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -6675,22 +8076,25 @@
       <c r="AD79">
         <v>5.305955410003662</v>
       </c>
-      <c r="AE79" t="s">
-        <v>143</v>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:32">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C80">
         <v>301421</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E80">
         <v>-2.22</v>
@@ -6708,7 +8112,7 @@
         <v>60415.76</v>
       </c>
       <c r="J80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -6740,8 +8144,23 @@
       <c r="T80">
         <v>-0.15</v>
       </c>
+      <c r="U80">
+        <v>-7.12</v>
+      </c>
+      <c r="V80">
+        <v>32.52</v>
+      </c>
+      <c r="W80">
+        <v>-58.48</v>
+      </c>
       <c r="Z80" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -6749,22 +8168,25 @@
       <c r="AD80">
         <v>4.468656063079834</v>
       </c>
-      <c r="AE80" t="s">
-        <v>143</v>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:32">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C81">
         <v>301511</v>
       </c>
       <c r="D81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E81">
         <v>10.02</v>
@@ -6782,7 +8204,7 @@
         <v>216495.97</v>
       </c>
       <c r="J81" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -6814,8 +8236,23 @@
       <c r="T81">
         <v>-1.76</v>
       </c>
+      <c r="U81">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="V81">
+        <v>99</v>
+      </c>
+      <c r="W81">
+        <v>189.9</v>
+      </c>
       <c r="Z81" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -6823,22 +8260,25 @@
       <c r="AD81">
         <v>5.683307647705078</v>
       </c>
-      <c r="AE81" t="s">
-        <v>143</v>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:32">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C82">
         <v>301526</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E82">
         <v>1.21</v>
@@ -6856,7 +8296,7 @@
         <v>68922.8</v>
       </c>
       <c r="J82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -6888,8 +8328,23 @@
       <c r="T82">
         <v>-0.24</v>
       </c>
+      <c r="U82">
+        <v>-2.35</v>
+      </c>
+      <c r="V82">
+        <v>126.95</v>
+      </c>
+      <c r="W82">
+        <v>2439</v>
+      </c>
       <c r="Z82" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>1</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -6897,22 +8352,25 @@
       <c r="AD82">
         <v>3.57816743850708</v>
       </c>
-      <c r="AE82" t="s">
-        <v>143</v>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:32">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83">
         <v>301529</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E83">
         <v>-4</v>
@@ -6930,7 +8388,7 @@
         <v>41379.94</v>
       </c>
       <c r="J83" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -6962,8 +8420,23 @@
       <c r="T83">
         <v>-0.7</v>
       </c>
+      <c r="U83">
+        <v>1.26</v>
+      </c>
+      <c r="V83">
+        <v>17.17</v>
+      </c>
+      <c r="W83">
+        <v>-71.38</v>
+      </c>
       <c r="Z83" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -6971,22 +8444,25 @@
       <c r="AD83">
         <v>3.260411024093628</v>
       </c>
-      <c r="AE83" t="s">
-        <v>143</v>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:32">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C84">
         <v>301580</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E84">
         <v>-6.3</v>
@@ -7004,7 +8480,7 @@
         <v>70862.92</v>
       </c>
       <c r="J84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K84">
         <v>9</v>
@@ -7036,8 +8512,23 @@
       <c r="T84">
         <v>-1.12</v>
       </c>
+      <c r="U84">
+        <v>-1.93</v>
+      </c>
+      <c r="V84">
+        <v>87.93000000000001</v>
+      </c>
+      <c r="W84">
+        <v>64.63</v>
+      </c>
       <c r="Z84" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -7045,22 +8536,25 @@
       <c r="AD84">
         <v>10.62442874908447</v>
       </c>
-      <c r="AE84" t="s">
-        <v>143</v>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:32">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C85">
         <v>301626</v>
       </c>
       <c r="D85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E85">
         <v>0.68</v>
@@ -7078,7 +8572,7 @@
         <v>40410.71</v>
       </c>
       <c r="J85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -7110,8 +8604,23 @@
       <c r="T85">
         <v>0.12</v>
       </c>
+      <c r="U85">
+        <v>1.61</v>
+      </c>
+      <c r="V85">
+        <v>83.3</v>
+      </c>
+      <c r="W85">
+        <v>-42.27</v>
+      </c>
       <c r="Z85" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -7119,8 +8628,11 @@
       <c r="AD85">
         <v>5.916038990020752</v>
       </c>
-      <c r="AE85" t="s">
-        <v>143</v>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
